--- a/suppxls/Scen_demo_DINS-QC.xlsx
+++ b/suppxls/Scen_demo_DINS-QC.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda_testcases\suppxls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EEAB51-FE83-41A3-B478-713B4DD27653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5593E0B7-C873-4F83-BD1D-9E044FBFEAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>REG1</t>
   </si>
@@ -59,6 +72,42 @@
   </si>
   <si>
     <t>ELCCO2</t>
+  </si>
+  <si>
+    <t>other_indexes</t>
+  </si>
+  <si>
+    <t>IRE_FLOSUM</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>IMP~OUT~ELCCO2N</t>
+  </si>
+  <si>
+    <t>NRGO</t>
+  </si>
+  <si>
+    <t>MINGAS1</t>
+  </si>
+  <si>
+    <t>FLO_BND</t>
+  </si>
+  <si>
+    <t>MINGAS2</t>
+  </si>
+  <si>
+    <t>limtype</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>MINGAS3</t>
+  </si>
+  <si>
+    <t>Gas_invalid</t>
   </si>
 </sst>
 </file>
@@ -129,9 +178,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,9 +218,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,26 +253,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,26 +288,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,26 +464,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14874909-4AE9-4DAC-833D-78AB69480B45}">
-  <dimension ref="C4:F18"/>
+  <dimension ref="B4:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -482,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -496,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -507,7 +522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -521,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -532,12 +547,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -551,7 +566,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>3</v>
       </c>
@@ -565,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -576,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>8</v>
       </c>
@@ -590,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>8</v>
       </c>
@@ -599,6 +614,295 @@
       </c>
       <c r="F18">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>2010</v>
+      </c>
+      <c r="H24">
+        <f>G24+1</f>
+        <v>2011</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:M24" si="0">H24+1</f>
+        <v>2012</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <v>2005</v>
+      </c>
+      <c r="H30">
+        <f>G30+12</f>
+        <v>2017</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30:M30" si="1">H30+1</f>
+        <v>2018</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>2010</v>
+      </c>
+      <c r="G36">
+        <f>F36+1</f>
+        <v>2011</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36" si="2">G36+1</f>
+        <v>2012</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36" si="3">H36+1</f>
+        <v>2013</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36" si="4">I36+1</f>
+        <v>2014</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36" si="5">J36+1</f>
+        <v>2015</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ref="L36" si="6">K36+1</f>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>999</v>
+      </c>
+      <c r="G37">
+        <v>999</v>
+      </c>
+      <c r="H37">
+        <v>999</v>
+      </c>
+      <c r="I37">
+        <v>999</v>
+      </c>
+      <c r="J37">
+        <v>999</v>
+      </c>
+      <c r="K37">
+        <v>999</v>
+      </c>
+      <c r="L37">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>2005</v>
+      </c>
+      <c r="G42">
+        <f>F42+12</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43">
+        <v>999</v>
+      </c>
+      <c r="G43">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
